--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1854345.462901147</v>
+        <v>1929875.132565952</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>115.2511029009962</v>
+        <v>29.66892079222692</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883149</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>27.23382699312491</v>
       </c>
       <c r="I4" t="n">
-        <v>10.33928636045619</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>374.6285181164338</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>60.77270032618416</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4.55384256506873</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>166.300800756919</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>117.2832377900596</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>138.2970331133479</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="S10" t="n">
-        <v>196.7218456862864</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>41.92656778835364</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>52.25126848119468</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>57.93408156253791</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>78.82585180931541</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>88.93914718599794</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>100.6429089206</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>97.53853895610997</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>14.73664328357096</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>136.4057165655216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>69.81394759925898</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>95.0330960888996</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>164.6150779290302</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>185.0314030821034</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>12.25677756260361</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.27820527287669</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4034,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>24.01153903325422</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2580.733835562671</v>
+        <v>2435.97430700205</v>
       </c>
       <c r="U2" t="n">
-        <v>2326.972050200762</v>
+        <v>2182.212521640141</v>
       </c>
       <c r="V2" t="n">
-        <v>1995.909162857192</v>
+        <v>2182.212521640141</v>
       </c>
       <c r="W2" t="n">
-        <v>1995.909162857192</v>
+        <v>2182.212521640141</v>
       </c>
       <c r="X2" t="n">
-        <v>1995.909162857192</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1995.909162857192</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,28 +4406,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.1897464970883</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C4" t="n">
-        <v>359.1897464970883</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D4" t="n">
-        <v>359.1897464970883</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E4" t="n">
-        <v>211.2766529146952</v>
+        <v>217.7808088763878</v>
       </c>
       <c r="F4" t="n">
-        <v>64.38670541678485</v>
+        <v>217.7808088763878</v>
       </c>
       <c r="G4" t="n">
-        <v>64.38670541678485</v>
+        <v>217.7808088763878</v>
       </c>
       <c r="H4" t="n">
-        <v>64.38670541678485</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.1897464970883</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>843.3415311720264</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>843.3415311720264</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>843.3415311720264</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>843.3415311720264</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>432.3556263824188</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1995.909162857192</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1995.909162857192</v>
+        <v>1229.941371236148</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.7314582348854</v>
+        <v>58.54282279518134</v>
       </c>
       <c r="C7" t="n">
-        <v>530.7314582348854</v>
+        <v>58.54282279518134</v>
       </c>
       <c r="D7" t="n">
-        <v>530.7314582348854</v>
+        <v>58.54282279518134</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524923</v>
+        <v>58.54282279518134</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>58.54282279518134</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>530.7314582348854</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>530.7314582348854</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>530.7314582348854</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>530.7314582348854</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W7" t="n">
-        <v>530.7314582348854</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7314582348854</v>
+        <v>58.54282279518134</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.7314582348854</v>
+        <v>58.54282279518134</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1394.624369323446</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C8" t="n">
         <v>1394.624369323446</v>
@@ -4802,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4835,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2523.652484589059</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2523.652484589059</v>
       </c>
       <c r="W8" t="n">
-        <v>2171.363541363379</v>
+        <v>2523.652484589059</v>
       </c>
       <c r="X8" t="n">
-        <v>2171.363541363379</v>
+        <v>2150.18672632798</v>
       </c>
       <c r="Y8" t="n">
-        <v>1781.224209387568</v>
+        <v>2150.18672632798</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,40 +4886,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4966,43 +4968,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S10" t="n">
-        <v>529.4200491697815</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>529.4200491697815</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>529.4200491697815</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5021,28 +5023,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5127,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5239,10 +5241,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5260,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5355,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.9271131227918</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>874.9271131227918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1440.396996252309</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V16" t="n">
-        <v>874.9271131227918</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W16" t="n">
-        <v>874.9271131227918</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X16" t="n">
-        <v>874.9271131227918</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.9271131227918</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,7 +5551,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>710.3120936331045</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1219.374187938793</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="W19" t="n">
-        <v>1119.950109361362</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="X19" t="n">
-        <v>891.9605584633442</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="Y19" t="n">
-        <v>891.9605584633442</v>
+        <v>709.4529700088207</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,46 +5737,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>410.874530133163</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L21" t="n">
-        <v>1024.771599890052</v>
+        <v>745.6707680030231</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1108.128127811259</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5968,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514081</v>
@@ -6011,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3941.006808105545</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="C25" t="n">
-        <v>3772.070625177638</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D25" t="n">
-        <v>3621.953985765302</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E25" t="n">
-        <v>3474.040892182909</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>4571.437402977332</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X25" t="n">
-        <v>4343.447852079315</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="Y25" t="n">
-        <v>4122.655272935785</v>
+        <v>920.3704617345004</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,22 +6220,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6251,25 +6253,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>462.7283310300503</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4321.869908593653</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="C28" t="n">
-        <v>4321.869908593653</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507268</v>
+        <v>315.6493240318295</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>167.7362304494363</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426964</v>
+        <v>167.7362304494363</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>167.7362304494363</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>167.7362304494363</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U28" t="n">
-        <v>4549.85945949167</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>4549.85945949167</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W28" t="n">
-        <v>4549.85945949167</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="X28" t="n">
-        <v>4321.869908593653</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="Y28" t="n">
-        <v>4321.869908593653</v>
+        <v>465.7659634441652</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6740,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1402.923244205479</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.020508932908</v>
+        <v>1113.794605419037</v>
       </c>
       <c r="V34" t="n">
-        <v>3893.336020727022</v>
+        <v>859.1101172131499</v>
       </c>
       <c r="W34" t="n">
-        <v>3603.918850690061</v>
+        <v>859.1101172131499</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916676</v>
+        <v>859.1101172131499</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916676</v>
+        <v>859.1101172131499</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,22 +6955,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7002,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,10 +7122,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011506</v>
@@ -7135,10 +7137,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7196,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>843.7395088768801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>1133.156678913841</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W40" t="n">
-        <v>843.7395088768801</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X40" t="n">
-        <v>843.7395088768801</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y40" t="n">
-        <v>843.7395088768801</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7391,52 +7393,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,19 +7499,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>109.5976748568552</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>844.0280401273991</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>554.6108700904385</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>326.6213191924212</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="44">
@@ -7625,67 +7627,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864553</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O45" t="n">
-        <v>2208.321444831246</v>
+        <v>4075.197584164473</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>4555.115143601279</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1474.662190726332</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1274.742180641885</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>87.16935584025333</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>50.62661940943661</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>124.3400780863232</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>20.63789864135481</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>159.0121003135244</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>124.3400780863232</v>
+        <v>277.6717966208048</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>96.36420453701768</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>163.6134794958513</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>142.7217092490739</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>197.5838511505931</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>151.4947344032279</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>69.70828214251786</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>130.6844047393603</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>12.20975645269073</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>40.60529786501301</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>126.5144649694897</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25360,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.631743169597627</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>33.55325026999137</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>98.16246790166836</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25840,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.3064480792181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>85.95281337053856</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="15">
@@ -26314,10 +26316,10 @@
         <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
@@ -26326,19 +26328,19 @@
         <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
@@ -26347,13 +26349,13 @@
         <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159209</v>
@@ -26430,34 +26432,34 @@
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007482</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26497,19 +26499,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.8998286981</v>
+        <v>-307592.899828698</v>
       </c>
       <c r="C6" t="n">
         <v>282374.9793858469</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.979385847</v>
+        <v>282374.9793858465</v>
       </c>
       <c r="E6" t="n">
-        <v>-136277.7694094842</v>
+        <v>-136277.7694094844</v>
       </c>
       <c r="F6" t="n">
         <v>388882.2670674119</v>
       </c>
       <c r="G6" t="n">
+        <v>388882.2670674117</v>
+      </c>
+      <c r="H6" t="n">
+        <v>388882.2670674116</v>
+      </c>
+      <c r="I6" t="n">
         <v>388882.2670674118</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>212459.0478748192</v>
+      </c>
+      <c r="K6" t="n">
+        <v>388882.2670674117</v>
+      </c>
+      <c r="L6" t="n">
         <v>388882.2670674118</v>
       </c>
-      <c r="I6" t="n">
-        <v>388882.2670674117</v>
-      </c>
-      <c r="J6" t="n">
-        <v>212459.0478748189</v>
-      </c>
-      <c r="K6" t="n">
-        <v>388882.2670674119</v>
-      </c>
-      <c r="L6" t="n">
-        <v>388882.2670674119</v>
-      </c>
       <c r="M6" t="n">
-        <v>254081.2518335747</v>
+        <v>254081.2518335746</v>
       </c>
       <c r="N6" t="n">
-        <v>388882.2670674119</v>
+        <v>388882.2670674118</v>
       </c>
       <c r="O6" t="n">
-        <v>388882.2670674117</v>
+        <v>388882.2670674118</v>
       </c>
       <c r="P6" t="n">
-        <v>388882.2670674119</v>
+        <v>388882.2670674118</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>101.1972174566616</v>
+        <v>186.7793995654309</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27546,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>128.9370618486702</v>
       </c>
       <c r="I4" t="n">
-        <v>124.626335431882</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>39.15565190436115</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>288.4682683912288</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>162.7559596939822</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>45.84473819309986</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>133.9409297182297</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>210.9439356040651</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>19.66077927292511</v>
       </c>
       <c r="S10" t="n">
-        <v>15.42369326373247</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33029,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33038,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33053,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,7 +35743,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>274.9155166742622</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>336.4270607962777</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>201.2020579973758</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,16 +36925,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>331.4334930178478</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>353.8324720393676</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>670.927063341192</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>366.105515245049</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>331.4334930178478</v>
+        <v>484.7652115523295</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1929875.132565952</v>
+        <v>1922858.117674242</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>411.4450956504851</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>29.66892079222692</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883149</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.23382699312491</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>125.8721928563319</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>106.7489988643977</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>374.6285181164338</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.94338340120355</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>4.55384256506873</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>96.36163317610439</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>117.2832377900596</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.54110646053176</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>127.0044127072327</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.92656778835364</v>
+        <v>155.5554764474075</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.93408156253791</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>162.4389966564799</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.4374166734253</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>78.82585180931541</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>23.8884872230014</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>100.6429089206</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>97.53853895610997</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>69.81394759925898</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>71.45343152782714</v>
       </c>
     </row>
     <row r="29">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>110.9763618019593</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>95.0330960888996</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>147.6987677450482</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>185.0314030821034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>12.25677756260361</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>24.01153903325422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>29.3220157029459</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>880.5299933276337</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>469.5440885380262</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2435.97430700205</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2182.212521640141</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2182.212521640141</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.212521640141</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.746763379062</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.746763379062</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
         <v>814.0449459359563</v>
@@ -4406,28 +4406,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,22 +4436,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.6939024587809</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>365.6939024587809</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587809</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587809</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587809</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="X4" t="n">
-        <v>365.6939024587809</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.6939024587809</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>843.3415311720264</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C5" t="n">
-        <v>843.3415311720264</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="D5" t="n">
-        <v>843.3415311720264</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>843.3415311720264</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>432.3556263824188</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1229.941371236148</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.54282279518134</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="C7" t="n">
-        <v>58.54282279518134</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>58.54282279518134</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>58.54282279518134</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>58.54282279518134</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931987</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X7" t="n">
-        <v>58.54282279518134</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.54282279518134</v>
+        <v>409.2948950230958</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>1689.203741822954</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1320.241224882542</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>961.9755262757915</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>576.1872736775472</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>165.2013688879396</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>151.2779648265305</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2523.652484589059</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>2523.652484589059</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="W8" t="n">
-        <v>2523.652484589059</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="X8" t="n">
-        <v>2150.18672632798</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.18672632798</v>
+        <v>2075.803581887075</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050021</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="R10" t="n">
-        <v>570.4247794971948</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600568</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>402.2569289289492</v>
       </c>
       <c r="E13" t="n">
-        <v>401.5197597634796</v>
+        <v>254.343835346556</v>
       </c>
       <c r="F13" t="n">
-        <v>401.5197597634796</v>
+        <v>254.343835346556</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5235,16 +5235,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.396996252309</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.268357465867</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>896.5838692599799</v>
+        <v>934.632733730781</v>
       </c>
       <c r="W16" t="n">
-        <v>896.5838692599799</v>
+        <v>934.632733730781</v>
       </c>
       <c r="X16" t="n">
-        <v>668.5943183619626</v>
+        <v>934.632733730781</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184324</v>
+        <v>713.8401545872508</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,13 +5518,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.8045051785809</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C19" t="n">
-        <v>358.8683222506741</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>517.7728799462201</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>517.7728799462201</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>349.5975582660407</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1219.374187938793</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>930.2455491523508</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>930.2455491523508</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>930.2455491523508</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>930.2455491523508</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.4529700088207</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5749,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>745.6707680030231</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>828.2191568567731</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>828.2191568567731</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>678.1025174444374</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>530.1894238620442</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>383.2994763641339</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1108.128127811259</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W22" t="n">
-        <v>818.7109577742983</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X22" t="n">
-        <v>818.7109577742983</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.9183786307682</v>
+        <v>1009.867621687013</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.3704617345004</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617345004</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>920.3704617345004</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.3704617345004</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6223,10 +6223,10 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6235,43 +6235,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>465.7659634441652</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C28" t="n">
-        <v>465.7659634441652</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>315.6493240318295</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>167.7362304494363</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>167.7362304494363</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7362304494363</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>167.7362304494363</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473454</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V28" t="n">
-        <v>755.1831334811258</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W28" t="n">
-        <v>465.7659634441652</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X28" t="n">
-        <v>465.7659634441652</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y28" t="n">
-        <v>465.7659634441652</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,10 +6484,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.3840174432676</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C31" t="n">
-        <v>155.4478345153607</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D31" t="n">
-        <v>155.4478345153607</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>155.4478345153607</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1386.818935404408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1097.690296617966</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>843.0058084120794</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>843.0058084120794</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>615.0162575140621</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735073</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6742,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>677.4616523829102</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C34" t="n">
-        <v>677.4616523829102</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1402.923244205479</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1113.794605419037</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>859.1101172131499</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W34" t="n">
-        <v>859.1101172131499</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X34" t="n">
-        <v>859.1101172131499</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y34" t="n">
-        <v>859.1101172131499</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7171,55 +7171,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>465.7659634441654</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>109.5976748568552</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4555.115143601279</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916993</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1474.662190726332</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1274.742180641885</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1050.956765431391</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1050.956765431391</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>796.2722772255036</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>506.8551071885429</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>278.8655562905255</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747067</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504743</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>87.16935584025333</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776759</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>85.30006332127834</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208048</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>124.5670006750239</v>
+        <v>10.93809201597008</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>163.6134794958513</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>89.69864666734807</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>9.476411694110851</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>142.7217092490739</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>142.6050812403762</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>151.4947344032279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>69.70828214251786</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>40.60529786501301</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>147.1312218242676</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24891,16 +24891,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>110.57119925643</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>126.5144649694897</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>78.01088764398895</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>33.55325026999137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>98.16246790166836</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>85.95281337053856</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>189.2626376491489</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>886944.3223752767</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="F2" t="n">
-        <v>488786.324672136</v>
-      </c>
       <c r="G2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="K2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>488786.3246721358</v>
       </c>
-      <c r="L2" t="n">
-        <v>488786.3246721359</v>
-      </c>
       <c r="M2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721359</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
@@ -26435,31 +26435,31 @@
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007485</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-307592.899828698</v>
       </c>
       <c r="C6" t="n">
-        <v>282374.9793858469</v>
+        <v>282374.9793858468</v>
       </c>
       <c r="D6" t="n">
         <v>282374.9793858465</v>
       </c>
       <c r="E6" t="n">
-        <v>-136277.7694094844</v>
+        <v>-137252.3606692056</v>
       </c>
       <c r="F6" t="n">
-        <v>388882.2670674119</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="G6" t="n">
-        <v>388882.2670674117</v>
+        <v>387907.6758076902</v>
       </c>
       <c r="H6" t="n">
-        <v>388882.2670674116</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="I6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.67580769</v>
       </c>
       <c r="J6" t="n">
-        <v>212459.0478748192</v>
+        <v>211484.4566150973</v>
       </c>
       <c r="K6" t="n">
-        <v>388882.2670674117</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="L6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="M6" t="n">
-        <v>254081.2518335746</v>
+        <v>253106.6605738533</v>
       </c>
       <c r="N6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076903</v>
       </c>
       <c r="O6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="P6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076902</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.339074370309845</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>186.7793995654309</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>128.9370618486702</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>99.16291260175241</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>247.9340427562852</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.15565190436115</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.3034376974243</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>162.7559596939822</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>227.5611395882528</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>133.9409297182297</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380961</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>19.66077927292511</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33031,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33040,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33119,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35977,10 +35977,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819989</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>336.4270607962777</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092005</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>334.5577682773026</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523295</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1922858.117674242</v>
+        <v>1927797.380523273</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>163.0915657041705</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.4450956504851</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553064</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30.60408762095384</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>125.8721928563319</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>106.7489988643977</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>85.72834075468843</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.94338340120355</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>37.85619482436734</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>194.9453656527047</v>
       </c>
       <c r="H8" t="n">
-        <v>96.36163317610439</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053176</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>155.5554764474075</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9.836073075152493</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>162.4389966564799</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>31.13654107019678</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.4374166734253</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>23.8884872230014</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>18.03006671577479</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.758858748229219</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>190.8403961558898</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.45343152782714</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>140.1852450404956</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>110.9763618019593</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>182.7717953161574</v>
       </c>
       <c r="X34" t="n">
-        <v>147.6987677450482</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>5.562624396424917</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>43.03801681746327</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.3220157029459</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>2255.520561484593</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.583944532628</v>
+        <v>1886.558044544181</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.318245925878</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E2" t="n">
-        <v>880.5299933276337</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>469.5440885380262</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747038</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692483</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423994</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649889</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430046</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T4" t="n">
-        <v>600.9853550586245</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U4" t="n">
-        <v>600.9853550586245</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V4" t="n">
-        <v>600.9853550586245</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W4" t="n">
-        <v>600.9853550586245</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X4" t="n">
-        <v>372.9958041606071</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1857.168914859137</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C5" t="n">
-        <v>1857.168914859137</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2555.52611795812</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2555.52611795812</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2555.52611795812</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2555.52611795812</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2555.52611795812</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.2948950230958</v>
+        <v>249.9299350185084</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>249.9299350185084</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>249.9299350185084</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>249.9299350185084</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="X7" t="n">
-        <v>409.2948950230958</v>
+        <v>470.7225141620385</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.2948950230958</v>
+        <v>249.9299350185084</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822954</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.241224882542</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D8" t="n">
-        <v>961.9755262757915</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E8" t="n">
-        <v>576.1872736775472</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F8" t="n">
-        <v>165.2013688879396</v>
+        <v>731.5181885495797</v>
       </c>
       <c r="G8" t="n">
-        <v>151.2779648265305</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887075</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435192</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050021</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600568</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
@@ -5059,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,16 +5108,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
@@ -5126,13 +5126,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.3735683412849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>552.3735683412849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>402.2569289289492</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>254.343835346556</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>254.343835346556</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5275,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,13 +5296,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5345,16 +5345,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
@@ -5366,13 +5366,13 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.8401545872508</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C16" t="n">
-        <v>713.8401545872508</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>934.632733730781</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>934.632733730781</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>934.632733730781</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y16" t="n">
-        <v>713.8401545872508</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.6859735286132</v>
+        <v>128.6681430463432</v>
       </c>
       <c r="C19" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>517.7728799462201</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>517.7728799462201</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>349.5975582660407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286132</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286132</v>
+        <v>310.3166078765829</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5749,19 +5749,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>828.2191568567731</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C22" t="n">
-        <v>828.2191568567731</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D22" t="n">
-        <v>678.1025174444374</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E22" t="n">
-        <v>530.1894238620442</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>383.2994763641339</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.867621687013</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X22" t="n">
-        <v>1009.867621687013</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="Y22" t="n">
-        <v>1009.867621687013</v>
+        <v>712.8170085027681</v>
       </c>
     </row>
     <row r="23">
@@ -5980,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>246.8937649665085</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944155</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6223,55 +6223,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.3120936331045</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1306.148193632761</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1306.148193632761</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247858</v>
+        <v>1306.148193632761</v>
       </c>
       <c r="V28" t="n">
-        <v>964.1357418247858</v>
+        <v>1306.148193632761</v>
       </c>
       <c r="W28" t="n">
-        <v>964.1357418247858</v>
+        <v>1306.148193632761</v>
       </c>
       <c r="X28" t="n">
-        <v>964.1357418247858</v>
+        <v>1078.158642734744</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.9605584633442</v>
+        <v>857.3660635912138</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>394.223678370532</v>
+        <v>854.4182661194303</v>
       </c>
       <c r="C31" t="n">
-        <v>394.223678370532</v>
+        <v>854.4182661194303</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>704.3016267070946</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1386.818935404408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1097.690296617966</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>843.0058084120794</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W31" t="n">
-        <v>843.0058084120794</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X31" t="n">
-        <v>615.0162575140621</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y31" t="n">
-        <v>394.223678370532</v>
+        <v>854.4182661194303</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V34" t="n">
-        <v>1075.21084526296</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W34" t="n">
-        <v>785.7936752259998</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X34" t="n">
-        <v>636.6030007360521</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y34" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2432.862693392488</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7168,34 +7168,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7356,25 +7356,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7848,10 +7848,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>441.900558318119</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270198</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951782</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747067</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9014,16 +9014,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9248,22 +9248,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>85.30006332127834</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>104.6241510367944</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>10.93809201597008</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>157.4107480234753</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23709,13 +23709,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>89.69864666734807</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>136.110280028431</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>9.476411694110851</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>142.6050812403762</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>207.6795886732624</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>145.8566142699831</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>7.080413827713414</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>147.1312218242676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>6.248717606073569</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.57119925643</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>103.7512030204336</v>
       </c>
       <c r="X34" t="n">
-        <v>78.01088764398895</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>213.0220289556699</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>175.5466365346315</v>
       </c>
     </row>
     <row r="44">
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>189.2626376491489</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752767</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
@@ -26340,22 +26340,22 @@
         <v>488786.324672136</v>
       </c>
       <c r="K2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="L2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="M2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="L2" t="n">
-        <v>488786.3246721358</v>
-      </c>
-      <c r="M2" t="n">
-        <v>488786.324672136</v>
-      </c>
       <c r="N2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721361</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145442</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340944</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82859.07806340944</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.899828698</v>
+        <v>-307592.8998286979</v>
       </c>
       <c r="C6" t="n">
-        <v>282374.9793858468</v>
+        <v>282374.9793858469</v>
       </c>
       <c r="D6" t="n">
         <v>282374.9793858465</v>
       </c>
       <c r="E6" t="n">
-        <v>-137252.3606692056</v>
+        <v>-136375.2285354565</v>
       </c>
       <c r="F6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="G6" t="n">
-        <v>387907.6758076902</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="H6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="I6" t="n">
-        <v>387907.67580769</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="J6" t="n">
-        <v>211484.4566150973</v>
+        <v>212361.5887488468</v>
       </c>
       <c r="K6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414397</v>
       </c>
       <c r="L6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414397</v>
       </c>
       <c r="M6" t="n">
-        <v>253106.6605738533</v>
+        <v>253983.7927076024</v>
       </c>
       <c r="N6" t="n">
-        <v>387907.6758076903</v>
+        <v>388784.8079414399</v>
       </c>
       <c r="O6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="P6" t="n">
-        <v>387907.6758076902</v>
+        <v>388784.8079414397</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170864</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170864</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545554</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545554</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>218.8388043680913</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.339074370309845</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.122657522500958e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>116.061104359204</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>99.16291260175241</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>247.9340427562852</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>88.6873720542831</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.3034376974243</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>107.5648531985639</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>218.8388043680903</v>
       </c>
       <c r="H8" t="n">
-        <v>227.5611395882528</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380961</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O4" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35968,22 +35968,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>618.2977090519464</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>334.5577682773026</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>192.6371838218685</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
